--- a/Matrices/Matrice des risques.xlsx
+++ b/Matrices/Matrice des risques.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Rapport IEF2I 2024\Matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A38AE23-F700-430B-A7C0-73BF73781E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4168B02-12FD-40C0-91C5-FB5B4331EA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C908EA35-1A2D-461D-8357-0794FF937610}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C908EA35-1A2D-461D-8357-0794FF937610}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Matrice des risques" sheetId="1" r:id="rId1"/>
+    <sheet name="Identification des risques" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$J$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Identification des risques'!$A$1:$J$11</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Identification des risques'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Matrice des risques'!$A$1:$J$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>Probabilité</t>
   </si>
@@ -63,32 +66,243 @@
     <t>R1, R2</t>
   </si>
   <si>
-    <t>15 - 25</t>
-  </si>
-  <si>
     <t xml:space="preserve">R3, R4, R5, R6, R7, R8, R9, R10 </t>
   </si>
   <si>
-    <t>8 - 12</t>
-  </si>
-  <si>
     <t>4 - 6</t>
   </si>
   <si>
-    <t>1 - 3</t>
-  </si>
-  <si>
     <t>Classement des risques</t>
   </si>
   <si>
     <t>Niveau</t>
+  </si>
+  <si>
+    <t>Risque</t>
+  </si>
+  <si>
+    <t>1. Retards dans le développement</t>
+  </si>
+  <si>
+    <t>2. Bugs critiques</t>
+  </si>
+  <si>
+    <t>3. Problèmes de sécurité</t>
+  </si>
+  <si>
+    <t>4. Mauvaise communication avec le client</t>
+  </si>
+  <si>
+    <t>5. Faible adoption par les utilisateurs</t>
+  </si>
+  <si>
+    <t>6. Défaillances de l'hébergement</t>
+  </si>
+  <si>
+    <t>7. Échec des campagnes marketing</t>
+  </si>
+  <si>
+    <t>8. Dépassement du budget</t>
+  </si>
+  <si>
+    <t>9. Problèmes de compatibilité</t>
+  </si>
+  <si>
+    <t>10. Concurrence accrue</t>
+  </si>
+  <si>
+    <t>Gravité</t>
+  </si>
+  <si>
+    <t>Criticité</t>
+  </si>
+  <si>
+    <t>Conséquence si avéré</t>
+  </si>
+  <si>
+    <t>Fort</t>
+  </si>
+  <si>
+    <t>17  - 25</t>
+  </si>
+  <si>
+    <t>7 - 12</t>
+  </si>
+  <si>
+    <t>1  - 3</t>
+  </si>
+  <si>
+    <t>13  - 16</t>
+  </si>
+  <si>
+    <t>Délais</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Jules GREGOIRE</t>
+  </si>
+  <si>
+    <t>Malik LAFIA</t>
+  </si>
+  <si>
+    <t>Sitraka RAHELIARISOA</t>
+  </si>
+  <si>
+    <t>Mériack YEDJI</t>
+  </si>
+  <si>
+    <t>- Créez un plan de projet détaillé incluant les tâches, les échéances, et les ressources nécessaires.
+- Identifiez les risques potentiels et établissez des plans de contingence.
+-  Organisez des réunions régulières pour suivre l'avancement et résoudre les problèmes rapidement
+- Utilisez des outils de gestion de projet et de collaboration pour faciliter la communication et le suivi des tâches.</t>
+  </si>
+  <si>
+    <t>-  Analysez les causes des retards pour comprendre ce qui a contribué au problème (problèmes de ressources, difficultés techniques, etc.).
+- Obtenez des retours d’information des membres de l’équipe et des parties prenantes pour identifier les problèmes spécifiques.
+- Révisez le plan de projet pour inclure de nouvelles échéances et ajuster les ressources nécessaires pour rattraper le retard.
+- Priorisation des Tâches : Réévaluez et priorisez les tâches critiques pour concentrer les efforts sur les aspects les plus importants.</t>
+  </si>
+  <si>
+    <t>- Adoptez des normes de codage strictes et assurez-vous que tous les membres de l’équipe les respectent.
+- Mettez en place des revues de code régulières pour détecter les erreurs potentielles avant qu'elles ne deviennent des problèmes critiques.
+- Utilisez des frameworks de test automatisés pour exécuter régulièrement des tests et détecter les problèmes dès qu'ils apparaissent.
+- Encouragez une culture de qualité et de responsabilité où les développeurs sont proactifs dans la détection et la résolution des problèmes.</t>
+  </si>
+  <si>
+    <t>- Reproduisez le bug dans un environnement de test pour comprendre exactement comment il se produit.
+- Examinez les journaux (logs) d'exécution pour identifier la cause profonde du problème.
+- Développez et testez une correction pour le bug critique en suivant un processus rigoureux pour éviter d’introduire de nouveaux problèmes.
+- Validez que la correction résout le problème sans affecter négativement d'autres parties du système.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Effectuez des revues de code pour identifier et corriger les vulnérabilités potentielles dès le développement.
+- Adoptez des pratiques de codage sécurisées, telles que la validation des entrées, l’échappement des données, et la gestion des erreurs.
+-  Implémentez des contrôles d'accès basés sur les rôles pour limiter les permissions aux utilisateurs et aux systèmes selon leurs besoins.
+- Utilisez des mécanismes d'authentification forts (comme l’authentification multi-facteurs) pour protéger les comptes et les systèmes critiques.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Utilisez des outils de surveillance pour détecter les incidents de sécurité dès qu'ils se produisent.
+- Contenez l’incident en isolant les systèmes affectés et en limitant les impacts sur l’organisation
+- Collectez des preuves numériques et des journaux pour analyser la nature et l'étendue de l'incident.
+- Analysez les causes de l'incident pour comprendre comment la vulnérabilité a été exploitée et quelles données ont été affectées.
+</t>
+  </si>
+  <si>
+    <t>- Organisez une réunion de lancement pour clarifier les objectifs, les attentes, et les exigences du client dès le début du projet.
+- Choisissez des canaux de communication appropriés (email, téléphone, outils de gestion de projet) et assurez-vous que le client est à l’aise avec ceux-ci.
+- Utilisez un langage simple et précis pour éviter les ambiguïtés. Évitez le jargon technique lorsque ce n’est pas nécessaire.
+- Faites valider les documents importants (comme les devis ou les spécifications) par le client pour vous assurer qu’ils sont bien compris et acceptés.</t>
+  </si>
+  <si>
+    <t>- Identifiez les problèmes de communication en examinant les retours du client, les plaintes, et les points de friction.
+- Fournissez des clarifications sur les points de confusion et corrigez les malentendus. Utilisez des exemples ou des démonstrations si nécessaire.
+- Révisez et ajustez le plan de communication pour améliorer la fréquence, la qualité, et la pertinence des échanges.
+- Offrez une formation continue à l’équipe pour améliorer les compétences en communication et en gestion des relations avec les clients.</t>
+  </si>
+  <si>
+    <t>- Effectuez des études de marché, des enquêtes, et des entretiens pour comprendre les besoins, les préférences, et les problèmes des utilisateurs cibles.
+- Adoptez une approche de design centré sur l’utilisateur (DCU) en impliquant les utilisateurs dans le processus de conception et en testant des prototypes avec eux.
+- Expérience Utilisateur (UX) : Assurez-vous que l’expérience utilisateur est fluide, intuitive, et répond aux besoins des utilisateurs.
+- Tests d’Acceptabilité : Réalisez des tests d’acceptabilité avec des utilisateurs réels pour valider que le produit répond à leurs attentes et est facile à utiliser.</t>
+  </si>
+  <si>
+    <t>- Analysez les retours des utilisateurs, les critiques et les plaintes pour identifier les problèmes qui empêchent l’adoption.
+- Correction des Problèmes : Identifiez et corrigez les bugs ou les problèmes techniques qui affectent la fonctionnalité ou l’expérience utilisateur.
+- Améliorations Fonctionnelles : Ajoutez ou ajustez des fonctionnalités en fonction des retours des utilisateurs et des besoins identifiés.
+- Support Proactif : Mettez en place un support proactif pour répondre aux questions et résoudre les problèmes rapidement.</t>
+  </si>
+  <si>
+    <t>- Choisissez un fournisseur d'hébergement réputé avec une solide réputation en matière de fiabilité, de sécurité et de support technique.
+- Mettez en place des serveurs de secours et des configurations de redondance pour garantir la continuité du service en cas de défaillance d'un serveur principal.
+- Implémentez des outils de surveillance pour suivre la performance, la disponibilité et la santé de l'infrastructure d'hébergement.
+- Réalisez des audits de sécurité pour identifier et corriger les vulnérabilités potentielles avant qu'elles ne causent des problèmes.</t>
+  </si>
+  <si>
+    <t>- Analysez la cause de la défaillance pour comprendre ce qui a provoqué le problème (panne matérielle, erreur logicielle, surcharge, etc.).
+- Redémarrage des Services : Redémarrez les services ou les serveurs affectés pour restaurer la fonctionnalité, en vous assurant de le faire de manière sécurisée pour éviter de nouveaux problèmes.
+- Redémarrez les services ou les serveurs affectés pour restaurer la fonctionnalité, en vous assurant de le faire de manière sécurisée pour éviter de nouveaux problèmes.
+- Informez les utilisateurs et les parties prenantes de la défaillance, des mesures prises pour y remédier et des délais prévus pour la résolution complète.</t>
+  </si>
+  <si>
+    <t>- Définissez des objectifs clairs et mesurables pour chaque campagne, tels que l'augmentation du trafic web, la génération de leads, ou l'augmentation des ventes.
+- Étudiez les campagnes marketing de vos concurrents pour comprendre les tendances du marché et éviter les erreurs courantes.
+- Créez un contenu attrayant et pertinent qui résonne avec votre public cible et qui est aligné avec vos objectifs de campagne.
+- Élaborez un plan de campagne détaillé incluant le calendrier, les canaux de diffusion, et les responsabilités.</t>
+  </si>
+  <si>
+    <t>- Analysez les performances de la campagne en comparant les résultats obtenus avec les objectifs fixés.
+- Modifiez le contenu, les visuels, et les appels à l'action pour mieux répondre aux attentes et aux préférences de votre public cible.
+- Communiquez ouvertement avec vos parties prenantes sur les raisons de l'échec et les mesures que vous prenez pour corriger le tir.
+- Assurez-vous que les outils de suivi et d’analyse utilisés sont appropriés et qu'ils fournissent des données précises et pertinentes.</t>
+  </si>
+  <si>
+    <t>- Créez un budget détaillé et réaliste en tenant compte des coûts directs et indirects, ainsi que des marges pour imprévus.
+- Mettez en place des systèmes de suivi pour surveiller les dépenses en temps réel et comparer les coûts réels avec le budget alloué.
+- Identifiez les risques potentiels qui pourraient entraîner des dépassements budgétaires, comme des fluctuations de prix ou des retards.
+- Préparez un plan de contingence pour faire face aux imprévus financiers, incluant des réserves budgétaires ou des solutions alternatives.</t>
+  </si>
+  <si>
+    <t>-Aanalysez les dépenses pour identifier les postes où les coûts ont dépassé les prévisions.
+- Réallouez les fonds à partir des postes moins critiques pour couvrir les dépassements ou ajustez le budget en fonction des nouvelles priorités.
+- Identifiez et mettez en œuvre des mesures de réduction des coûts, telles que la négociation de remises, la réduction des dépenses non essentielles, ou l'optimisation des processus.
+- Informez les parties prenantes des dépassements budgétaires, des causes identifiées, et des mesures prises pour corriger la situation.</t>
+  </si>
+  <si>
+    <t>- Évaluez les environnements cibles (systèmes d'exploitation, navigateurs, matériels) et leurs exigences spécifiques avant de développer ou de déployer un logiciel.
+- Réalisez des tests de compatibilité sur différentes configurations matérielles, systèmes d'exploitation, et versions de logiciels pour identifier les problèmes potentiels avant le déploiement.
+- Documentez clairement les exigences de compatibilité et les spécifications techniques dans les documents de conception et les guides de développement.
+- Assurez-vous que le logiciel ou l'application est régulièrement mis à jour pour rester compatible avec les nouvelles versions des systèmes d'exploitation, des navigateurs et des autres logiciels.</t>
+  </si>
+  <si>
+    <t>- Identifiez les problèmes de compatibilité en examinant les rapports d'erreurs, les feedbacks des utilisateurs, et les logs systèmes.
+- Développez et déployez des mises à jour ou des patches pour résoudre les problèmes de compatibilité identifiés.
+- Créez des guides de dépannage détaillés pour aider les utilisateurs à résoudre les problèmes de compatibilité courants.
+- Collectez les retours d'expérience sur les problèmes de compatibilité rencontrés et les solutions mises en place pour améliorer les processus futurs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Réalisez des études approfondies pour comprendre les stratégies, les forces et les faiblesses de vos concurrents.
+- Investissez dans la recherche et le développement pour créer des produits et services innovants qui répondent aux besoins émergents des clients.
+- Développez une proposition de valeur claire et unique qui distingue vos produits ou services de ceux de vos concurrents.
+- Négociez des accords avantageux avec les fournisseurs pour réduire les coûts de production et améliorer les marges bénéficiaires.
+</t>
+  </si>
+  <si>
+    <t>- Réaévaluer en réalisant une analyse SWOT (forces, faiblesses, opportunités, menaces) pour évaluer votre position sur le marché et ajuster votre stratégie en conséquence.
+- Révisez et améliorez vos produits ou services pour qu’ils répondent mieux aux besoins des clients et se démarquent de ceux de la concurrence.
+- Collectez et analysez les retours des clients pour identifier les points d'amélioration et ajuster vos offres en conséquence.</t>
+  </si>
+  <si>
+    <t>Probabilité
+ (1-5)</t>
+  </si>
+  <si>
+    <t>Impact
+ (1-5)</t>
+  </si>
+  <si>
+    <t>Score 
+(P x I)</t>
+  </si>
+  <si>
+    <t>Responsable affecté</t>
+  </si>
+  <si>
+    <t>Actions 
+préventives</t>
+  </si>
+  <si>
+    <t>Actions 
+correctrices</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,8 +345,21 @@
       <name val="Minion Pro"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,8 +402,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFD9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -199,11 +438,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -217,60 +471,74 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E1C178-8142-4D20-9EB9-9CF665B3E4E8}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView topLeftCell="A3" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.45"/>
@@ -717,7 +985,7 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="11"/>
+      <c r="D1" s="9"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -727,8 +995,8 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="11"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -739,7 +1007,7 @@
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="11"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -747,34 +1015,34 @@
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D4" s="11"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:13" ht="96.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="4">
         <v>5</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="11">
         <f>D5*$E$15</f>
         <v>5</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="12">
         <f>D5*$F$15</f>
         <v>10</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="29">
         <f>$D5*$G$15</f>
         <v>15</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="13">
         <f>$D5*H$15</f>
         <v>20</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="13">
         <f>$D5*I$15</f>
         <v>25</v>
       </c>
@@ -782,27 +1050,27 @@
     <row r="6" spans="1:13" ht="96.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="8"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="4">
         <v>4</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="11">
         <f t="shared" ref="E6:E9" si="0">D6*$E$15</f>
         <v>4</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="12">
         <f t="shared" ref="F6:F9" si="1">D6*$F$15</f>
         <v>8</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="12">
         <f t="shared" ref="G6:G9" si="2">$D6*$G$15</f>
         <v>12</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="29">
         <f t="shared" ref="H6:I9" si="3">$D6*H$15</f>
         <v>16</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="13">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -810,27 +1078,27 @@
     <row r="7" spans="1:13" ht="96.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="8"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="4">
         <v>3</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="11">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="12">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="12">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="29">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
@@ -838,27 +1106,27 @@
     <row r="8" spans="1:13" ht="96.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="8"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="11">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="12">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -866,27 +1134,27 @@
     <row r="9" spans="1:13" ht="96.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="14">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="14">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="11">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="11">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -932,10 +1200,10 @@
       <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="5">
         <v>1</v>
       </c>
@@ -951,29 +1219,29 @@
       <c r="I15" s="5">
         <v>5</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:13" ht="40.200000000000003" x14ac:dyDescent="0.45">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="11"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -987,11 +1255,11 @@
         <v>6</v>
       </c>
       <c r="D18" s="22"/>
-      <c r="E18" s="26" t="s">
-        <v>14</v>
+      <c r="E18" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -1001,7 +1269,7 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="11"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -1011,14 +1279,14 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="20" t="s">
+      <c r="C20" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="20"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -1026,11 +1294,11 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="21" t="s">
+      <c r="C21" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="16" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="6"/>
@@ -1041,53 +1309,57 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="18" t="s">
+      <c r="C22" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="F22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="11" t="s">
+      <c r="C23" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="C24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="11"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -1098,7 +1370,7 @@
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="11"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -1109,7 +1381,7 @@
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="11"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -1120,7 +1392,7 @@
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="11"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -1131,12 +1403,23 @@
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="11"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1153,4 +1436,413 @@
   </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E2CBFB-A796-435C-A436-484021ADAED3}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="63" zoomScaleNormal="100" zoomScalePageLayoutView="63" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="50.6640625" customWidth="1"/>
+    <col min="10" max="10" width="60.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="175.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="28">
+        <v>4</v>
+      </c>
+      <c r="C2" s="28">
+        <v>4</v>
+      </c>
+      <c r="D2" s="28">
+        <f>C2*B2</f>
+        <v>16</v>
+      </c>
+      <c r="E2" s="28" t="str">
+        <f>IF(D2&lt;=3,"Faible",IF(D2&lt;=6,"Mineur",IF(D2&lt;=12,"Élevé",IF(D2&lt;=16,"Fort","Très élevé"))))</f>
+        <v>Fort</v>
+      </c>
+      <c r="F2" s="28" t="str">
+        <f>IF(C2=1,"Insignifiante",IF(C2=2,"Mineure",IF(C2=3,"Significative",IF(C2=4,"Majeure","Sévère"))))</f>
+        <v>Majeure</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="193.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="28">
+        <v>3</v>
+      </c>
+      <c r="C3" s="28">
+        <v>5</v>
+      </c>
+      <c r="D3" s="28">
+        <f t="shared" ref="D3:D11" si="0">C3*B3</f>
+        <v>15</v>
+      </c>
+      <c r="E3" s="28" t="str">
+        <f t="shared" ref="E3:E11" si="1">IF(D3&lt;=3,"Faible",IF(D3&lt;=6,"Mineur",IF(D3&lt;=12,"Élevé",IF(D3&lt;=16,"Fort","Très élevé"))))</f>
+        <v>Fort</v>
+      </c>
+      <c r="F3" s="28" t="str">
+        <f t="shared" ref="F3:F11" si="2">IF(C3=1,"Insignifiante",IF(C3=2,"Mineure",IF(C3=3,"Significative",IF(C3=4,"Majeure","Sévère"))))</f>
+        <v>Sévère</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="203.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="28">
+        <v>2</v>
+      </c>
+      <c r="C4" s="28">
+        <v>5</v>
+      </c>
+      <c r="D4" s="28">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E4" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Élevé</v>
+      </c>
+      <c r="F4" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Sévère</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="28">
+        <v>3</v>
+      </c>
+      <c r="C5" s="28">
+        <v>4</v>
+      </c>
+      <c r="D5" s="28">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E5" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Élevé</v>
+      </c>
+      <c r="F5" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Majeure</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="28">
+        <v>2</v>
+      </c>
+      <c r="C6" s="28">
+        <v>4</v>
+      </c>
+      <c r="D6" s="28">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E6" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Élevé</v>
+      </c>
+      <c r="F6" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Majeure</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="28">
+        <v>2</v>
+      </c>
+      <c r="C7" s="28">
+        <v>5</v>
+      </c>
+      <c r="D7" s="28">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E7" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Élevé</v>
+      </c>
+      <c r="F7" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Sévère</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="172.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="28">
+        <v>3</v>
+      </c>
+      <c r="C8" s="28">
+        <v>4</v>
+      </c>
+      <c r="D8" s="28">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E8" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Élevé</v>
+      </c>
+      <c r="F8" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Majeure</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="28">
+        <v>4</v>
+      </c>
+      <c r="C9" s="28">
+        <v>3</v>
+      </c>
+      <c r="D9" s="28">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E9" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Élevé</v>
+      </c>
+      <c r="F9" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Significative</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="234.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="28">
+        <v>3</v>
+      </c>
+      <c r="C10" s="28">
+        <v>3</v>
+      </c>
+      <c r="D10" s="28">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E10" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Élevé</v>
+      </c>
+      <c r="F10" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Significative</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="28">
+        <v>3</v>
+      </c>
+      <c r="C11" s="28">
+        <v>3</v>
+      </c>
+      <c r="D11" s="28">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E11" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Élevé</v>
+      </c>
+      <c r="F11" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Significative</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="4" orientation="landscape" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>